--- a/tut06/output/2001EE03.xlsx
+++ b/tut06/output/2001EE03.xlsx
@@ -493,7 +493,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -669,7 +669,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -713,7 +713,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
